--- a/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="373">
   <si>
     <t>Property</t>
   </si>
@@ -610,13 +610,7 @@
     <t>これは、検索、並べ替え、および表示の目的で使用される。</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes for diagnostic service sections.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_DiagnosticReportCategory_VS</t>
   </si>
   <si>
     <t xml:space="preserve">pattern:$this}
@@ -648,8 +642,8 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0074"/&gt;
-    &lt;code value="LAB"/&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="LP29693-6"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1207,6 +1201,9 @@
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
 すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素と事前・事後の用語作成（pre- and post-coordination）との関係を管理するための独自の構造を提供する必要がある。
 【JP Core仕様】原則使わない</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Diagnosis codes provided as adjuncts to the report.</t>
@@ -1580,7 +1577,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="48.453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.546875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.515625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -3155,26 +3152,24 @@
         <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Y14" s="2"/>
+      <c r="Z14" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="AA14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB14" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>180</v>
@@ -3195,24 +3190,24 @@
         <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>193</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>180</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>181</v>
@@ -3243,7 +3238,7 @@
         <v>184</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3254,7 +3249,7 @@
         <v>81</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>81</v>
@@ -3269,13 +3264,11 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Y15" s="2"/>
+      <c r="Z15" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>81</v>
@@ -3311,25 +3304,25 @@
         <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3351,13 +3344,13 @@
         <v>182</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3386,10 +3379,10 @@
         <v>114</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>81</v>
@@ -3407,7 +3400,7 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>90</v>
@@ -3422,24 +3415,24 @@
         <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>208</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3462,13 +3455,13 @@
         <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3519,7 +3512,7 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3540,7 +3533,7 @@
         <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
@@ -3548,10 +3541,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3580,7 +3573,7 @@
         <v>137</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>139</v>
@@ -3621,19 +3614,19 @@
         <v>81</v>
       </c>
       <c r="AB18" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3654,7 +3647,7 @@
         <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
@@ -3662,10 +3655,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3688,19 +3681,19 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>81</v>
@@ -3737,17 +3730,17 @@
         <v>81</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3765,10 +3758,10 @@
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -3776,13 +3769,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>81</v>
@@ -3804,19 +3797,19 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>233</v>
-      </c>
       <c r="O20" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>81</v>
@@ -3826,7 +3819,7 @@
         <v>81</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>81</v>
@@ -3865,7 +3858,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3883,10 +3876,10 @@
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>81</v>
@@ -3894,10 +3887,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3920,19 +3913,19 @@
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>81</v>
@@ -3981,7 +3974,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -3999,10 +3992,10 @@
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>81</v>
@@ -4010,14 +4003,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4036,19 +4029,19 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4097,7 +4090,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4112,28 +4105,28 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>253</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4152,19 +4145,19 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>81</v>
@@ -4213,7 +4206,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4228,28 +4221,28 @@
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>264</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4268,19 +4261,19 @@
         <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4329,7 +4322,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4344,28 +4337,28 @@
         <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>275</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4384,19 +4377,19 @@
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -4445,7 +4438,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4463,25 +4456,25 @@
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>285</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4500,19 +4493,19 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -4561,7 +4554,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4576,28 +4569,28 @@
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>296</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4616,19 +4609,19 @@
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>301</v>
-      </c>
       <c r="O27" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -4677,7 +4670,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4692,24 +4685,24 @@
         <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AL27" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>295</v>
-      </c>
       <c r="AN27" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4732,19 +4725,19 @@
         <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -4793,7 +4786,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4811,10 +4804,10 @@
         <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
@@ -4822,14 +4815,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4848,19 +4841,19 @@
         <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -4909,7 +4902,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4927,10 +4920,10 @@
         <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
@@ -4938,10 +4931,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4964,16 +4957,16 @@
         <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5023,7 +5016,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5044,7 +5037,7 @@
         <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
@@ -5052,14 +5045,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5078,19 +5071,19 @@
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5139,7 +5132,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5157,10 +5150,10 @@
         <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -5168,10 +5161,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5194,13 +5187,13 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5251,7 +5244,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5272,7 +5265,7 @@
         <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -5280,10 +5273,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5312,7 +5305,7 @@
         <v>137</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>139</v>
@@ -5365,7 +5358,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5386,7 +5379,7 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5394,14 +5387,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5423,10 +5416,10 @@
         <v>136</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>139</v>
@@ -5481,7 +5474,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5510,10 +5503,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5536,19 +5529,19 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -5597,7 +5590,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5618,7 +5611,7 @@
         <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -5626,10 +5619,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5652,16 +5645,16 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5711,7 +5704,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>90</v>
@@ -5732,7 +5725,7 @@
         <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -5740,14 +5733,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5766,19 +5759,19 @@
         <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -5827,7 +5820,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5845,10 +5838,10 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -5856,10 +5849,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5885,13 +5878,13 @@
         <v>182</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5917,14 +5910,14 @@
         <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>186</v>
+        <v>362</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="Z38" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>365</v>
-      </c>
       <c r="AA38" t="s" s="2">
         <v>81</v>
       </c>
@@ -5941,7 +5934,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -5959,10 +5952,10 @@
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -5970,10 +5963,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5996,19 +5989,19 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6057,7 +6050,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6075,10 +6068,10 @@
         <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
